--- a/python/sample.xlsx
+++ b/python/sample.xlsx
@@ -54,10 +54,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:O7"/>
+  <dimension ref="A1:AR17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,9 +434,47 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="4" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="9" max="9"/>
+    <col width="4" customWidth="1" min="10" max="10"/>
+    <col width="4" customWidth="1" min="11" max="11"/>
+    <col width="4" customWidth="1" min="12" max="12"/>
+    <col width="4" customWidth="1" min="13" max="13"/>
+    <col width="4" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="18" max="18"/>
+    <col width="4" customWidth="1" min="19" max="19"/>
+    <col width="4" customWidth="1" min="20" max="20"/>
+    <col width="4" customWidth="1" min="22" max="22"/>
+    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="27" max="27"/>
+    <col width="4" customWidth="1" min="28" max="28"/>
+    <col width="4" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="4" customWidth="1" min="31" max="31"/>
+    <col width="4" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="36" max="36"/>
+    <col width="4" customWidth="1" min="37" max="37"/>
+    <col width="10" customWidth="1" min="39" max="39"/>
+    <col width="10" customWidth="1" min="40" max="40"/>
+    <col width="10" customWidth="1" min="41" max="41"/>
+    <col width="10" customWidth="1" min="42" max="42"/>
+    <col width="10" customWidth="1" min="43" max="43"/>
+    <col width="10" customWidth="1" min="44" max="44"/>
+    <col width="10" customWidth="1" min="45" max="45"/>
   </cols>
   <sheetData>
     <row r="0" ht="70" customHeight="1"/>
@@ -451,6 +492,23 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>за период с 1</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>по</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>3105</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
@@ -459,7 +517,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ярославский государственный университет им. П.Г. Демидова       </t>
+          <t>Ярославский государственный университет им. П.Г. Демидова</t>
         </is>
       </c>
       <c r="F5" s="2" t="n"/>
@@ -481,7 +539,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кафедра теоретической информатики                               </t>
+          <t>Кафедра теоретической информатики</t>
         </is>
       </c>
       <c r="F6" s="2" t="n"/>
@@ -503,7 +561,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">первичный                                                       </t>
+          <t>первичный</t>
         </is>
       </c>
       <c r="F7" s="2" t="n"/>
@@ -517,7 +575,404 @@
       <c r="N7" s="2" t="n"/>
       <c r="O7" s="2" t="n"/>
     </row>
+    <row r="8">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>(первичный - 0; корректирующий - 1, 2 и так далее)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Числа месяца</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N13" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O13" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P13" s="3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="Q13" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R13" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="S13" s="3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="T13" s="3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="U13" s="3" t="n"/>
+      <c r="V13" s="3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="W13" s="3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="X13" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="Y13" s="3" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="Z13" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AA13" s="3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AB13" s="3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AC13" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AD13" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AE13" s="3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AF13" s="3" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AG13" s="3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AH13" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AI13" s="3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AJ13" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AK13" s="3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N17" s="3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="O17" s="3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P17" s="3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="Q17" s="3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="R17" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="S17" s="3" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="T17" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="U17" s="3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="V17" s="3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="W17" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="X17" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="Y17" s="3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="Z17" s="3" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AA17" s="3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AB17" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AC17" s="3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AD17" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AE17" s="3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AF17" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AG17" s="3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AH17" s="3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AI17" s="3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AJ17" s="3" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AK17" s="3" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AL17" s="3" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AM17" s="3" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AN17" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AO17" s="3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="AP17" s="3" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AQ17" s="3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AR17" s="3" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F10:AH10"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/python/sample.xlsx
+++ b/python/sample.xlsx
@@ -503,11 +503,6 @@
           <t>по</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>3105</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">

--- a/python/sample.xlsx
+++ b/python/sample.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,6 +29,10 @@
       <name val="Arimo"/>
       <b val="1"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arimo"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,12 +58,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,8 +490,7 @@
     <col width="10" customWidth="1" min="45" max="45"/>
   </cols>
   <sheetData>
-    <row r="0" ht="70" customHeight="1"/>
-    <row r="1">
+    <row r="1" ht="70" customHeight="1">
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Т а б е л ь  №  ______________</t>
@@ -501,6 +513,11 @@
       <c r="M4" t="inlineStr">
         <is>
           <t>по</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>31 января</t>
         </is>
       </c>
     </row>
@@ -578,394 +595,444 @@
       </c>
     </row>
     <row r="10">
-      <c r="F10" s="3" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>учётный номер</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>Числа месяца</t>
         </is>
       </c>
+      <c r="AM10" s="4" t="inlineStr">
+        <is>
+          <t>Итого отработано за месяц</t>
+        </is>
+      </c>
+      <c r="AR10" s="5" t="inlineStr">
+        <is>
+          <t>Количе-ство дней (часов) неявок</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Фамилия, имя</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="AM11" s="6" t="inlineStr">
+        <is>
+          <t>часов</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Отчество</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G13" s="3" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" s="3" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I13" s="3" t="inlineStr">
+      <c r="I13" s="4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="K13" s="3" t="inlineStr">
+      <c r="K13" s="4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="L13" s="4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M13" s="3" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N13" s="3" t="inlineStr">
+      <c r="N13" s="4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O13" s="3" t="inlineStr">
+      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P13" s="3" t="inlineStr">
+      <c r="P13" s="4" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Q13" s="3" t="inlineStr">
+      <c r="Q13" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="R13" s="3" t="inlineStr">
+      <c r="R13" s="4" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="S13" s="3" t="inlineStr">
+      <c r="S13" s="4" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="T13" s="3" t="inlineStr">
+      <c r="T13" s="4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="U13" s="3" t="n"/>
-      <c r="V13" s="3" t="inlineStr">
+      <c r="U13" s="4" t="n"/>
+      <c r="V13" s="4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" s="3" t="inlineStr">
+      <c r="W13" s="4" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="X13" s="3" t="inlineStr">
+      <c r="X13" s="4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y13" s="3" t="inlineStr">
+      <c r="Y13" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="Z13" s="3" t="inlineStr">
+      <c r="Z13" s="4" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AA13" s="3" t="inlineStr">
+      <c r="AA13" s="4" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="AB13" s="3" t="inlineStr">
+      <c r="AB13" s="4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AC13" s="3" t="inlineStr">
+      <c r="AC13" s="4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AD13" s="3" t="inlineStr">
+      <c r="AD13" s="4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="AE13" s="3" t="inlineStr">
+      <c r="AE13" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AF13" s="3" t="inlineStr">
+      <c r="AF13" s="4" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="AG13" s="3" t="inlineStr">
+      <c r="AG13" s="4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AH13" s="3" t="inlineStr">
+      <c r="AH13" s="4" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="AI13" s="3" t="inlineStr">
+      <c r="AI13" s="4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AJ13" s="3" t="inlineStr">
+      <c r="AJ13" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AK13" s="3" t="inlineStr">
+      <c r="AK13" s="4" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
     </row>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="G17" s="4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H17" s="3" t="inlineStr">
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="I17" s="3" t="inlineStr">
+      <c r="I17" s="4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="K17" s="3" t="inlineStr">
+      <c r="K17" s="4" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="L17" s="3" t="inlineStr">
+      <c r="L17" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="M17" s="3" t="inlineStr">
+      <c r="M17" s="4" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="N17" s="3" t="inlineStr">
+      <c r="N17" s="4" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="O17" s="3" t="inlineStr">
+      <c r="O17" s="4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="P17" s="3" t="inlineStr">
+      <c r="P17" s="4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Q17" s="3" t="inlineStr">
+      <c r="Q17" s="4" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="R17" s="3" t="inlineStr">
+      <c r="R17" s="4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="S17" s="3" t="inlineStr">
+      <c r="S17" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="T17" s="3" t="inlineStr">
+      <c r="T17" s="4" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="U17" s="3" t="inlineStr">
+      <c r="U17" s="4" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="V17" s="3" t="inlineStr">
+      <c r="V17" s="4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="W17" s="3" t="inlineStr">
+      <c r="W17" s="4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="X17" s="3" t="inlineStr">
+      <c r="X17" s="4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="Y17" s="3" t="inlineStr">
+      <c r="Y17" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="Z17" s="3" t="inlineStr">
+      <c r="Z17" s="4" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="AA17" s="3" t="inlineStr">
+      <c r="AA17" s="4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB17" s="3" t="inlineStr">
+      <c r="AB17" s="4" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="AC17" s="3" t="inlineStr">
+      <c r="AC17" s="4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AD17" s="3" t="inlineStr">
+      <c r="AD17" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AE17" s="3" t="inlineStr">
+      <c r="AE17" s="4" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="AF17" s="3" t="inlineStr">
+      <c r="AF17" s="4" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="AG17" s="3" t="inlineStr">
+      <c r="AG17" s="4" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="AH17" s="3" t="inlineStr">
+      <c r="AH17" s="4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AI17" s="3" t="inlineStr">
+      <c r="AI17" s="4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AJ17" s="3" t="inlineStr">
+      <c r="AJ17" s="4" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="AK17" s="3" t="inlineStr">
+      <c r="AK17" s="4" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="AL17" s="3" t="inlineStr">
+      <c r="AL17" s="4" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="AM17" s="3" t="inlineStr">
+      <c r="AM17" s="4" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="AN17" s="3" t="inlineStr">
+      <c r="AN17" s="4" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AO17" s="3" t="inlineStr">
+      <c r="AO17" s="4" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="AP17" s="3" t="inlineStr">
+      <c r="AP17" s="4" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="AQ17" s="3" t="inlineStr">
+      <c r="AQ17" s="4" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="AR17" s="3" t="inlineStr">
+      <c r="AR17" s="4" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AR10:AR16"/>
+    <mergeCell ref="AM11:AQ12"/>
     <mergeCell ref="F10:AH10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/python/sample.xlsx
+++ b/python/sample.xlsx
@@ -61,12 +61,12 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -504,6 +504,13 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="AK3" s="2" t="inlineStr">
+        <is>
+          <t>Коды</t>
+        </is>
+      </c>
+    </row>
     <row r="4">
       <c r="H4" t="inlineStr">
         <is>
@@ -517,7 +524,17 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>31 января</t>
+          <t>31 мая 2025</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Форма по ОКУД</t>
+        </is>
+      </c>
+      <c r="AK4" s="2" t="inlineStr">
+        <is>
+          <t>0504421</t>
         </is>
       </c>
     </row>
@@ -527,21 +544,45 @@
           <t>Учреждение</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>Ярославский государственный университет им. П.Г. Демидова</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="3" t="n"/>
+      <c r="R5" s="3" t="n"/>
+      <c r="S5" s="3" t="n"/>
+      <c r="T5" s="3" t="n"/>
+      <c r="U5" s="3" t="n"/>
+      <c r="V5" s="3" t="n"/>
+      <c r="W5" s="3" t="n"/>
+      <c r="X5" s="3" t="n"/>
+      <c r="Y5" s="3" t="n"/>
+      <c r="Z5" s="3" t="n"/>
+      <c r="AA5" s="3" t="n"/>
+      <c r="AB5" s="3" t="n"/>
+      <c r="AC5" s="3" t="n"/>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>19.05.2025</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
@@ -549,21 +590,45 @@
           <t>Структурное подразделение</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>Кафедра теоретической информатики</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="n"/>
+      <c r="Q6" s="3" t="n"/>
+      <c r="R6" s="3" t="n"/>
+      <c r="S6" s="3" t="n"/>
+      <c r="T6" s="3" t="n"/>
+      <c r="U6" s="3" t="n"/>
+      <c r="V6" s="3" t="n"/>
+      <c r="W6" s="3" t="n"/>
+      <c r="X6" s="3" t="n"/>
+      <c r="Y6" s="3" t="n"/>
+      <c r="Z6" s="3" t="n"/>
+      <c r="AA6" s="3" t="n"/>
+      <c r="AB6" s="3" t="n"/>
+      <c r="AC6" s="3" t="n"/>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>По ОКПО</t>
+        </is>
+      </c>
+      <c r="AK6" s="2" t="inlineStr">
+        <is>
+          <t>02069409</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
@@ -571,21 +636,35 @@
           <t>Вид табеля</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>первичный</t>
         </is>
       </c>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="3" t="n"/>
+      <c r="P7" s="3" t="n"/>
+      <c r="Q7" s="3" t="n"/>
+      <c r="R7" s="3" t="n"/>
+      <c r="S7" s="3" t="n"/>
+      <c r="T7" s="3" t="n"/>
+      <c r="U7" s="3" t="n"/>
+      <c r="V7" s="3" t="n"/>
+      <c r="W7" s="3" t="n"/>
+      <c r="X7" s="3" t="n"/>
+      <c r="Y7" s="3" t="n"/>
+      <c r="Z7" s="3" t="n"/>
+      <c r="AA7" s="3" t="n"/>
+      <c r="AB7" s="3" t="n"/>
+      <c r="AC7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="L8" t="inlineStr">
@@ -593,19 +672,41 @@
           <t>(первичный - 0; корректирующий - 1, 2 и так далее)</t>
         </is>
       </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>Номер корректировки</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>Дата формирования документа</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>19.05.2025</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>учётный номер</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>Числа месяца</t>
         </is>
       </c>
-      <c r="AM10" s="4" t="inlineStr">
+      <c r="AM10" s="2" t="inlineStr">
         <is>
           <t>Итого отработано за месяц</t>
         </is>
@@ -617,17 +718,17 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>Фамилия, имя</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U11" s="2" t="inlineStr">
         <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AL11" s="2" t="inlineStr">
         <is>
           <t>Всего</t>
         </is>
@@ -639,400 +740,656 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Отчество</t>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>отчество</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>дней</t>
+        </is>
+      </c>
+      <c r="AL12" s="2" t="inlineStr">
+        <is>
+          <t>дней</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="F13" s="4" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Должность</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="M13" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O13" s="4" t="inlineStr">
+      <c r="O13" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P13" s="4" t="inlineStr">
+      <c r="P13" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="S13" s="2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="T13" s="4" t="inlineStr">
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="U13" s="4" t="n"/>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>(часов)</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" s="4" t="inlineStr">
+      <c r="W13" s="2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="X13" s="4" t="inlineStr">
+      <c r="X13" s="2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Y13" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="Z13" s="4" t="inlineStr">
+      <c r="Z13" s="2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AA13" s="4" t="inlineStr">
+      <c r="AA13" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="AB13" s="4" t="inlineStr">
+      <c r="AB13" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AC13" s="4" t="inlineStr">
+      <c r="AC13" s="2" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AD13" s="4" t="inlineStr">
+      <c r="AD13" s="2" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="AE13" s="4" t="inlineStr">
+      <c r="AE13" s="2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AF13" s="4" t="inlineStr">
+      <c r="AF13" s="2" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="AG13" s="4" t="inlineStr">
+      <c r="AG13" s="2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AH13" s="4" t="inlineStr">
+      <c r="AH13" s="2" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="AI13" s="4" t="inlineStr">
+      <c r="AI13" s="2" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AJ13" s="4" t="inlineStr">
+      <c r="AJ13" s="2" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AK13" s="4" t="inlineStr">
+      <c r="AK13" s="2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
+      <c r="AL13" s="2" t="inlineStr">
+        <is>
+          <t>(часов)</t>
+        </is>
+      </c>
+      <c r="AM13" s="6" t="inlineStr">
+        <is>
+          <t>всего</t>
+        </is>
+      </c>
+      <c r="AN13" s="6" t="inlineStr">
+        <is>
+          <t>из них</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>(профессия)</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>явок</t>
+        </is>
+      </c>
+      <c r="AL14" s="2" t="inlineStr">
+        <is>
+          <t>явок</t>
+        </is>
+      </c>
+      <c r="AN14" s="5" t="inlineStr">
+        <is>
+          <t>сверхурочных</t>
+        </is>
+      </c>
+      <c r="AO14" s="5" t="inlineStr">
+        <is>
+          <t>ночных</t>
+        </is>
+      </c>
+      <c r="AP14" s="5" t="inlineStr">
+        <is>
+          <t>выходных, праздничных</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>чт</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>пт</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>сб</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>вс</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>пн</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>вт</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ср</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>чт</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>пт</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>сб</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>вс</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>пн</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>вт</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>ср</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>чт</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>(неявок)</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>пт</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>сб</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>вс</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>пн</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>вт</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>ср</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>чт</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>пт</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>сб</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>вс</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>пн</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>вт</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>ср</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>чт</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>пт</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>сб</t>
+        </is>
+      </c>
+      <c r="AL15" s="2" t="inlineStr">
+        <is>
+          <t>(неявок)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>с 1 по 15</t>
+        </is>
+      </c>
+      <c r="AL16" s="2" t="inlineStr">
+        <is>
+          <t>за месяц</t>
+        </is>
+      </c>
+    </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H17" s="4" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="I17" s="4" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="K17" s="4" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="M17" s="2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="N17" s="2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="O17" s="4" t="inlineStr">
+      <c r="O17" s="2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="P17" s="4" t="inlineStr">
+      <c r="P17" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
+      <c r="Q17" s="2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="S17" s="4" t="inlineStr">
+      <c r="S17" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="T17" s="4" t="inlineStr">
+      <c r="T17" s="2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="U17" s="4" t="inlineStr">
+      <c r="U17" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="V17" s="4" t="inlineStr">
+      <c r="V17" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="W17" s="4" t="inlineStr">
+      <c r="W17" s="2" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="X17" s="4" t="inlineStr">
+      <c r="X17" s="2" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="Y17" s="2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="Z17" s="4" t="inlineStr">
+      <c r="Z17" s="2" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="AA17" s="4" t="inlineStr">
+      <c r="AA17" s="2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB17" s="4" t="inlineStr">
+      <c r="AB17" s="2" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="AC17" s="4" t="inlineStr">
+      <c r="AC17" s="2" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AD17" s="4" t="inlineStr">
+      <c r="AD17" s="2" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AE17" s="4" t="inlineStr">
+      <c r="AE17" s="2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="AF17" s="4" t="inlineStr">
+      <c r="AF17" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="AG17" s="4" t="inlineStr">
+      <c r="AG17" s="2" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="AH17" s="4" t="inlineStr">
+      <c r="AH17" s="2" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AI17" s="4" t="inlineStr">
+      <c r="AI17" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AJ17" s="4" t="inlineStr">
+      <c r="AJ17" s="2" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="AK17" s="4" t="inlineStr">
+      <c r="AK17" s="2" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="AL17" s="4" t="inlineStr">
+      <c r="AL17" s="2" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="AM17" s="4" t="inlineStr">
+      <c r="AM17" s="2" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="AN17" s="4" t="inlineStr">
+      <c r="AN17" s="2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AO17" s="4" t="inlineStr">
+      <c r="AO17" s="2" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="AP17" s="4" t="inlineStr">
+      <c r="AP17" s="2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="AQ17" s="4" t="inlineStr">
+      <c r="AQ17" s="2" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="AR17" s="4" t="inlineStr">
+      <c r="AR17" s="2" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="13">
+    <mergeCell ref="AO14:AO16"/>
+    <mergeCell ref="AN14:AN16"/>
+    <mergeCell ref="AR10:AR16"/>
+    <mergeCell ref="AP14:AP16"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="AN13:AQ13"/>
+    <mergeCell ref="AM13:AM16"/>
+    <mergeCell ref="AM11:AQ12"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AR10:AR16"/>
-    <mergeCell ref="AM11:AQ12"/>
+    <mergeCell ref="AK6:AM6"/>
     <mergeCell ref="F10:AH10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/python/sample.xlsx
+++ b/python/sample.xlsx
@@ -580,7 +580,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>19.05.2025</t>
+          <t>20.05.2025</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>19.05.2025</t>
+          <t>20.05.2025</t>
         </is>
       </c>
     </row>
